--- a/data/trans_orig/P47A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11285</v>
+        <v>10944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28315</v>
+        <v>30249</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02599625264364575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01626102182069181</v>
+        <v>0.0157695363581787</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04079875487486354</v>
+        <v>0.04358625488569461</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>26297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17365</v>
+        <v>17255</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39651</v>
+        <v>37346</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03820242927802298</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02522765572263992</v>
+        <v>0.02506740051757211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0576035576809763</v>
+        <v>0.05425441380199503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -786,19 +786,19 @@
         <v>44338</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32803</v>
+        <v>32001</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60621</v>
+        <v>58104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03207434740225536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02372965630190062</v>
+        <v>0.02314975248626331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04385324554941336</v>
+        <v>0.04203260097795311</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>429624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402749</v>
+        <v>402739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455722</v>
+        <v>453470</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6190435494404725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5803206425220828</v>
+        <v>0.5803056819979485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.656648972033841</v>
+        <v>0.6534033280972124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>349</v>
@@ -836,19 +836,19 @@
         <v>345221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319653</v>
+        <v>321522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>372373</v>
+        <v>371688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5015193138705162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4643752970525133</v>
+        <v>0.4670896270349603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5409635180327903</v>
+        <v>0.5399690453425816</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>773</v>
@@ -857,19 +857,19 @@
         <v>774845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740962</v>
+        <v>739037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>815907</v>
+        <v>815253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5605220761221571</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.53601131049998</v>
+        <v>0.5346183912938012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5902264251902036</v>
+        <v>0.5897528385512287</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>179652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>157562</v>
+        <v>159725</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>203470</v>
+        <v>202354</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2588605133924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2270312241620953</v>
+        <v>0.2301469406060259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2931796379848127</v>
+        <v>0.2915708795271124</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -907,19 +907,19 @@
         <v>199110</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>177521</v>
+        <v>175439</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>222329</v>
+        <v>222658</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2892570063256827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2578929092300814</v>
+        <v>0.2548686450560858</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3229882619582863</v>
+        <v>0.3234654435753461</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>379</v>
@@ -928,19 +928,19 @@
         <v>378763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>349467</v>
+        <v>344014</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>410271</v>
+        <v>413143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2739965195237193</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2528040629234402</v>
+        <v>0.2488597199352132</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2967897860599857</v>
+        <v>0.2988674679799477</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>66694</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51476</v>
+        <v>52688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82181</v>
+        <v>83382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09609968452348183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07417164750593305</v>
+        <v>0.07591842700608317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.118414644071148</v>
+        <v>0.1201446282564849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -978,19 +978,19 @@
         <v>117723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97927</v>
+        <v>100197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136837</v>
+        <v>138058</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1710212505257781</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.142263118796343</v>
+        <v>0.1455616141857382</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1987894650295126</v>
+        <v>0.2005640133994693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -999,19 +999,19 @@
         <v>184417</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160698</v>
+        <v>157872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216283</v>
+        <v>208134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1334070569518683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1162490209372813</v>
+        <v>0.1142046352593483</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1564587427175798</v>
+        <v>0.1505636198026745</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>43779</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31501</v>
+        <v>30858</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58905</v>
+        <v>58875</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04551800747494922</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03275214621315561</v>
+        <v>0.03208310756493758</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06124447053313273</v>
+        <v>0.06121300996139854</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -1124,19 +1124,19 @@
         <v>28310</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18272</v>
+        <v>19783</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40331</v>
+        <v>41194</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02926275195802794</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01888695702409878</v>
+        <v>0.02044826741231124</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04168810996866928</v>
+        <v>0.04257964154796262</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>65</v>
@@ -1145,19 +1145,19 @@
         <v>72090</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56220</v>
+        <v>56387</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>93151</v>
+        <v>90649</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03736656271854772</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02914086674627633</v>
+        <v>0.02922721895764268</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04828347479390481</v>
+        <v>0.04698634781488516</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>571319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>539540</v>
+        <v>539736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>602874</v>
+        <v>604933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5940106706227689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.56096903283767</v>
+        <v>0.5611729676129192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6268183088261813</v>
+        <v>0.6289591477573513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>473</v>
@@ -1195,19 +1195,19 @@
         <v>505228</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>476326</v>
+        <v>471354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>537591</v>
+        <v>536403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5222247900759431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4923499522206758</v>
+        <v>0.4872111732886748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5556763493210956</v>
+        <v>0.5544482599419976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1004</v>
@@ -1216,19 +1216,19 @@
         <v>1076548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1031247</v>
+        <v>1029209</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1116905</v>
+        <v>1120285</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5580125505711984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5345315686190035</v>
+        <v>0.5334750053863546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5789307941405594</v>
+        <v>0.5806830502345162</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>275179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246576</v>
+        <v>249335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>305843</v>
+        <v>305772</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2861086071888983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2563690082311234</v>
+        <v>0.2592383335580682</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.317989848698473</v>
+        <v>0.3179160988495938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -1266,19 +1266,19 @@
         <v>305630</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275102</v>
+        <v>274532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333382</v>
+        <v>336501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3159120781735418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2843562083385945</v>
+        <v>0.2837674252371318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3445971763209263</v>
+        <v>0.3478215704075143</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>547</v>
@@ -1287,19 +1287,19 @@
         <v>580810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537795</v>
+        <v>542716</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>622352</v>
+        <v>623374</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3010540103557351</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2787578633686877</v>
+        <v>0.281308984932982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3225868932484169</v>
+        <v>0.3231167764296988</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>71522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56905</v>
+        <v>55971</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90983</v>
+        <v>90449</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07436271471338357</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05916549474827376</v>
+        <v>0.05819433481650792</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09459673227194257</v>
+        <v>0.0940418250125048</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -1337,19 +1337,19 @@
         <v>128285</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>107010</v>
+        <v>105424</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>151165</v>
+        <v>150899</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1326003797924872</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1106101931308278</v>
+        <v>0.1089709032236263</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1562499250640156</v>
+        <v>0.1559758742760795</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>187</v>
@@ -1358,19 +1358,19 @@
         <v>199807</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>174501</v>
+        <v>172525</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>228157</v>
+        <v>230159</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1035668763545189</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09044973256987235</v>
+        <v>0.08942571193463711</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1182615561538868</v>
+        <v>0.1192993801556044</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>34530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23841</v>
+        <v>23073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47403</v>
+        <v>48429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05096553023346825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03518953067595038</v>
+        <v>0.03405552769414005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06996681256520589</v>
+        <v>0.07148035972383189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1483,19 +1483,19 @@
         <v>24430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16161</v>
+        <v>15815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35139</v>
+        <v>35159</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03592001152749185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02376102191461148</v>
+        <v>0.02325266302234129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05166478549446783</v>
+        <v>0.05169456391939633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1504,19 +1504,19 @@
         <v>58960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45192</v>
+        <v>45101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75284</v>
+        <v>77880</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04342825288344494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03328714535842184</v>
+        <v>0.03322010686056293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0554515575689381</v>
+        <v>0.05736373410874846</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>421213</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>395574</v>
+        <v>394934</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>445140</v>
+        <v>445343</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6217046174545554</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5838611503260148</v>
+        <v>0.5829165818905354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.657020653393171</v>
+        <v>0.6573204333946725</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>381</v>
@@ -1554,19 +1554,19 @@
         <v>374295</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>350299</v>
+        <v>348584</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>398776</v>
+        <v>401544</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5503256641089862</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5150448775140609</v>
+        <v>0.5125232619435344</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5863206316572744</v>
+        <v>0.590390637716544</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>773</v>
@@ -1575,19 +1575,19 @@
         <v>795507</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>759208</v>
+        <v>756923</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>829848</v>
+        <v>832065</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5859462644968589</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5592092379770101</v>
+        <v>0.557526232799596</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.611240539759931</v>
+        <v>0.6128738464739858</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>185176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>162209</v>
+        <v>163609</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209857</v>
+        <v>208764</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2733167426962586</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2394185635713967</v>
+        <v>0.2414841136098393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3097457884259655</v>
+        <v>0.3081332008254787</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>204</v>
@@ -1625,19 +1625,19 @@
         <v>200137</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176992</v>
+        <v>175267</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222667</v>
+        <v>220968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2942622894331269</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2602312562534563</v>
+        <v>0.2576944887554165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3273879719814793</v>
+        <v>0.3248898946797003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>384</v>
@@ -1646,19 +1646,19 @@
         <v>385313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>355991</v>
+        <v>350700</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>419563</v>
+        <v>419799</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2838097272246645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.262212427568293</v>
+        <v>0.2583148130690158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3090376445963235</v>
+        <v>0.3092115234625674</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>36595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26224</v>
+        <v>26549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49274</v>
+        <v>49751</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05401310961571774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03870665653616213</v>
+        <v>0.0391858330177839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07272843422100764</v>
+        <v>0.07343197878239664</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -1696,19 +1696,19 @@
         <v>81270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64625</v>
+        <v>66688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>99517</v>
+        <v>97308</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.119492034930395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09501881044390008</v>
+        <v>0.09805124486758544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1463192910172807</v>
+        <v>0.1430721950711975</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -1717,19 +1717,19 @@
         <v>117865</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98876</v>
+        <v>99276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141418</v>
+        <v>140546</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08681575539503163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07282901146336569</v>
+        <v>0.07312372008224603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1041645362367607</v>
+        <v>0.1035219055803039</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>45473</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33483</v>
+        <v>33126</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59251</v>
+        <v>59903</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04848352282961901</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03569940957125916</v>
+        <v>0.03531871178114004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06317343910756107</v>
+        <v>0.06386839635713654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1842,19 +1842,19 @@
         <v>35780</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25442</v>
+        <v>25317</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48986</v>
+        <v>48704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03455636502749752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02457222272101121</v>
+        <v>0.02445168580212627</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04731177280960399</v>
+        <v>0.04703884791443932</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -1863,19 +1863,19 @@
         <v>81253</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64409</v>
+        <v>64405</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101154</v>
+        <v>99869</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04117592404052012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03263991797614056</v>
+        <v>0.03263805061636234</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05126137129194409</v>
+        <v>0.05061019081285856</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>619776</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>591362</v>
+        <v>592492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>646944</v>
+        <v>649236</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6608062021232629</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6305114229539616</v>
+        <v>0.6317155173703984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6897728422611804</v>
+        <v>0.6922164845499228</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>572</v>
@@ -1913,19 +1913,19 @@
         <v>596348</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>567009</v>
+        <v>565027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>627217</v>
+        <v>627267</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5759611229857666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5476250073756932</v>
+        <v>0.5457112131091162</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6057749234196512</v>
+        <v>0.6058233833567769</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1219</v>
@@ -1934,19 +1934,19 @@
         <v>1216124</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1172243</v>
+        <v>1172048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1256800</v>
+        <v>1257646</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6162878728004113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5940508245956331</v>
+        <v>0.593951697823346</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6369009903647068</v>
+        <v>0.6373296517278072</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>221397</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>197605</v>
+        <v>198271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>248241</v>
+        <v>248237</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2360536671735023</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.210686802938211</v>
+        <v>0.21139662419052</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2646750952083899</v>
+        <v>0.2646701667874392</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>287</v>
@@ -1984,19 +1984,19 @@
         <v>300503</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>269548</v>
+        <v>272686</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>329310</v>
+        <v>333107</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2902295740624691</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2603332557956515</v>
+        <v>0.2633639180397347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3180522064352001</v>
+        <v>0.3217198212282076</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>527</v>
@@ -2005,19 +2005,19 @@
         <v>521899</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>484075</v>
+        <v>482141</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>561717</v>
+        <v>561345</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2644798397785001</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2453120371440615</v>
+        <v>0.2443317290392242</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2846578149735264</v>
+        <v>0.2844694346223189</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>51263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38480</v>
+        <v>39475</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64397</v>
+        <v>65901</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05465660787361573</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0410275389850147</v>
+        <v>0.04208860834622157</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06866034503095343</v>
+        <v>0.0702635350641679</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -2055,19 +2055,19 @@
         <v>102766</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84369</v>
+        <v>84059</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>123029</v>
+        <v>121885</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09925293792426675</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08148505825084655</v>
+        <v>0.08118577873695865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1188228700193558</v>
+        <v>0.117718081060391</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>156</v>
@@ -2076,19 +2076,19 @@
         <v>154029</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128486</v>
+        <v>131906</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179068</v>
+        <v>178599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07805636338056843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06511195199705089</v>
+        <v>0.06684513524507446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09074523470839631</v>
+        <v>0.09050763843893601</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>141824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>117942</v>
+        <v>117278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>167729</v>
+        <v>166063</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04335485313674091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03605416483611861</v>
+        <v>0.03585143879548667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0512738520972803</v>
+        <v>0.05076453710266586</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -2201,19 +2201,19 @@
         <v>114817</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>94178</v>
+        <v>94198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>137270</v>
+        <v>140127</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03405683216609888</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02793500555353912</v>
+        <v>0.02794102178328567</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0407168668019091</v>
+        <v>0.04156420056862927</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>243</v>
@@ -2222,19 +2222,19 @@
         <v>256641</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>227370</v>
+        <v>224685</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>288879</v>
+        <v>286928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03863578512317884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03422929683676845</v>
+        <v>0.03382499069489418</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04348899485765501</v>
+        <v>0.04319540260937982</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>2041932</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1983102</v>
+        <v>1980938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2098477</v>
+        <v>2092302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6242085308076787</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6062244261950215</v>
+        <v>0.6055628059042453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.641494027163959</v>
+        <v>0.6396063425715641</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1775</v>
@@ -2272,19 +2272,19 @@
         <v>1821092</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1763135</v>
+        <v>1765786</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1879209</v>
+        <v>1876598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5401696410240486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5229784998463554</v>
+        <v>0.5237648024248271</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5574082955944029</v>
+        <v>0.5566338867254826</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3769</v>
@@ -2293,19 +2293,19 @@
         <v>3863024</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3776829</v>
+        <v>3774187</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3939994</v>
+        <v>3936819</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5815558805366811</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5685796177019516</v>
+        <v>0.568181910622988</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5931431517340262</v>
+        <v>0.5926652399768053</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>861404</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>806480</v>
+        <v>815661</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>911393</v>
+        <v>914272</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2633269449588718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2465368299820196</v>
+        <v>0.2493435108281588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2786082639008993</v>
+        <v>0.2794883190594998</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>981</v>
@@ -2343,19 +2343,19 @@
         <v>1005380</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>950507</v>
+        <v>954020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1055931</v>
+        <v>1057835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2982145283940564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2819379586057656</v>
+        <v>0.282979967333841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3132088157115718</v>
+        <v>0.313773430746067</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1837</v>
@@ -2364,19 +2364,19 @@
         <v>1866785</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1793476</v>
+        <v>1794205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1941153</v>
+        <v>1936918</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2810336031369173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2699973481115659</v>
+        <v>0.2701072043226206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2922292952443292</v>
+        <v>0.2915917137879323</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>226074</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>200235</v>
+        <v>201000</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>256956</v>
+        <v>259571</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06910967109670856</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06121081575713495</v>
+        <v>0.06144475440780822</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07855003286656895</v>
+        <v>0.07934963685769315</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>423</v>
@@ -2414,19 +2414,19 @@
         <v>430044</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>393004</v>
+        <v>393049</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>469339</v>
+        <v>470837</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1275589984157961</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1165723180942949</v>
+        <v>0.1165855246418032</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1392147980092278</v>
+        <v>0.139659090044215</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>648</v>
@@ -2435,19 +2435,19 @@
         <v>656118</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>610072</v>
+        <v>609737</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>708150</v>
+        <v>702751</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0987747312032228</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09184286167702146</v>
+        <v>0.0917924333521572</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1066079304197406</v>
+        <v>0.10579512382115</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>27784</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18392</v>
+        <v>18567</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40292</v>
+        <v>39939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03990580447098824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02641572675227893</v>
+        <v>0.02666744210073092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05786992013087831</v>
+        <v>0.05736341628450919</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2800,19 +2800,19 @@
         <v>28227</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18310</v>
+        <v>19280</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39221</v>
+        <v>42802</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04123505225113823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02674787068081164</v>
+        <v>0.02816466269276169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05729483145338771</v>
+        <v>0.06252620745529087</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -2821,19 +2821,19 @@
         <v>56012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42779</v>
+        <v>42499</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73953</v>
+        <v>71839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04056479776226348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0309811283661923</v>
+        <v>0.03077879937438806</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05355820235325994</v>
+        <v>0.05202717251345692</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>436575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411398</v>
+        <v>413565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>461026</v>
+        <v>462788</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6270426066808253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5908806983444012</v>
+        <v>0.5939931713777457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6621605991929724</v>
+        <v>0.6646911864243306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>353</v>
@@ -2871,19 +2871,19 @@
         <v>382237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>357842</v>
+        <v>355204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>412751</v>
+        <v>408799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5583788933497353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5227430517579019</v>
+        <v>0.5188884137925822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6029543624398261</v>
+        <v>0.5971817509463923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>768</v>
@@ -2892,19 +2892,19 @@
         <v>818812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>781885</v>
+        <v>785451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>855533</v>
+        <v>857405</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5930016046081122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5662578811213946</v>
+        <v>0.5688408333956267</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6195954538301576</v>
+        <v>0.6209512847432016</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>184500</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>161075</v>
+        <v>161179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208800</v>
+        <v>210174</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2649923348766635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2313483499823892</v>
+        <v>0.2314981302692125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2998947957231364</v>
+        <v>0.3018672106204274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>201</v>
@@ -2942,19 +2942,19 @@
         <v>210717</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186881</v>
+        <v>185490</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>234518</v>
+        <v>234243</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3078202088292403</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2729995861448535</v>
+        <v>0.2709670706208334</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.342589116826073</v>
+        <v>0.3421861491991762</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>379</v>
@@ -2963,19 +2963,19 @@
         <v>395217</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>361058</v>
+        <v>363405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>428988</v>
+        <v>431801</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2862248560332121</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2614856356010275</v>
+        <v>0.2631860667919164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.310682509864669</v>
+        <v>0.3127194885352094</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>47386</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34755</v>
+        <v>35151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62610</v>
+        <v>61277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.068059253971523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04991788315917201</v>
+        <v>0.05048699078564431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08992559031497643</v>
+        <v>0.088011315355927</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -3013,19 +3013,19 @@
         <v>63366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48892</v>
+        <v>50364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80943</v>
+        <v>81075</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0925658455698861</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07142232982050453</v>
+        <v>0.07357340090073783</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1182430704225745</v>
+        <v>0.1184364849258094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -3034,19 +3034,19 @@
         <v>110752</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91027</v>
+        <v>91504</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133775</v>
+        <v>133469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0802087415964121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06592403103686388</v>
+        <v>0.06626883327685246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09688276450519469</v>
+        <v>0.09666097399323485</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>43740</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32403</v>
+        <v>32147</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58890</v>
+        <v>57525</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0433108668275144</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03208571185590994</v>
+        <v>0.03183193340669557</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05831244379825273</v>
+        <v>0.05696138107322192</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -3159,19 +3159,19 @@
         <v>35682</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24523</v>
+        <v>23713</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51696</v>
+        <v>51662</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03480924807449083</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0239227583226548</v>
+        <v>0.02313296039842018</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05043122875990085</v>
+        <v>0.05039810949343262</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>72</v>
@@ -3180,19 +3180,19 @@
         <v>79422</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>61690</v>
+        <v>62068</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99490</v>
+        <v>99798</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03902836164950348</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03031518031482653</v>
+        <v>0.03050067928247295</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04888999659585562</v>
+        <v>0.04904149007775775</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>654677</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>621731</v>
+        <v>621793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>684954</v>
+        <v>683973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6482608244007292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6156373216023592</v>
+        <v>0.6156985551788329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6782411275604195</v>
+        <v>0.6772691923172772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>494</v>
@@ -3230,19 +3230,19 @@
         <v>539462</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>506365</v>
+        <v>505659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>570788</v>
+        <v>573236</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.526267778503081</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4939798888917308</v>
+        <v>0.4932912190153072</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5568274752088952</v>
+        <v>0.559215055789047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1097</v>
@@ -3251,19 +3251,19 @@
         <v>1194140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1148636</v>
+        <v>1147288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1235758</v>
+        <v>1237778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5868094860244699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5644485518015249</v>
+        <v>0.5637861607014318</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6072611557180944</v>
+        <v>0.6082537352487518</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>266710</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238038</v>
+        <v>239180</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296126</v>
+        <v>298245</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2640956393160312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2357047252468209</v>
+        <v>0.2368361334822772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2932238838840551</v>
+        <v>0.2953221369013901</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>319</v>
@@ -3301,19 +3301,19 @@
         <v>347805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316310</v>
+        <v>321152</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>378231</v>
+        <v>381607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3392982233713051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3085732306710007</v>
+        <v>0.3132972409473402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3689798349492647</v>
+        <v>0.3722734558989845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -3322,19 +3322,19 @@
         <v>614515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>572957</v>
+        <v>572238</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658155</v>
+        <v>660859</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3019773022054632</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2815557302607029</v>
+        <v>0.2812023501669805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3234225916265636</v>
+        <v>0.3247511198447339</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>44771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32715</v>
+        <v>30660</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60882</v>
+        <v>61250</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04433266945572518</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03239400855980853</v>
+        <v>0.03035909204493206</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06028515115433686</v>
+        <v>0.06064939063042356</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>91</v>
@@ -3372,19 +3372,19 @@
         <v>102123</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85449</v>
+        <v>82815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>125995</v>
+        <v>124001</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09962475005112308</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08335930180720456</v>
+        <v>0.08078965556499826</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1229132496194486</v>
+        <v>0.1209678859450376</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>132</v>
@@ -3393,19 +3393,19 @@
         <v>146894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122923</v>
+        <v>123018</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>172949</v>
+        <v>172907</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07218485012056335</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06040521956476105</v>
+        <v>0.06045185510568821</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08498871301693978</v>
+        <v>0.08496781255652881</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>42331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30573</v>
+        <v>31579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57408</v>
+        <v>57364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05639414484534394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04072974357131915</v>
+        <v>0.04207010488940944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07648073063578717</v>
+        <v>0.07642130060069832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3518,19 +3518,19 @@
         <v>29399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19352</v>
+        <v>18991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42002</v>
+        <v>42007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03824124368057683</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02517255483217527</v>
+        <v>0.02470271440825813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05463538290430959</v>
+        <v>0.05464085776044763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -3539,19 +3539,19 @@
         <v>71730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55367</v>
+        <v>55975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90229</v>
+        <v>91669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04720925692090112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03644029297176203</v>
+        <v>0.03684016237613644</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0593844943120839</v>
+        <v>0.06033276937451463</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>439098</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>410603</v>
+        <v>409181</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>467610</v>
+        <v>467302</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5849781200219769</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.547016789430645</v>
+        <v>0.5451216363729779</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.622961994732426</v>
+        <v>0.6225518528503744</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>320</v>
@@ -3589,19 +3589,19 @@
         <v>355148</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>326306</v>
+        <v>327006</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>386425</v>
+        <v>382824</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4619655522031639</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4244492163367283</v>
+        <v>0.4253597160202214</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5026502910284771</v>
+        <v>0.4979662786891998</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>722</v>
@@ -3610,19 +3610,19 @@
         <v>794246</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>748240</v>
+        <v>749729</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>832714</v>
+        <v>835376</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5227370138506585</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4924579385572578</v>
+        <v>0.4934379321116797</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5480551270790099</v>
+        <v>0.549807464346007</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>215062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>188174</v>
+        <v>188526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>241513</v>
+        <v>239484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2865111834045028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2506900609272473</v>
+        <v>0.2511594515290434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3217505142744169</v>
+        <v>0.3190472710029715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -3660,19 +3660,19 @@
         <v>293502</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>264142</v>
+        <v>265675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>320702</v>
+        <v>322868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.381779132398222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3435875609070727</v>
+        <v>0.3455821616760692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4171599779327514</v>
+        <v>0.4199778336527555</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>462</v>
@@ -3681,19 +3681,19 @@
         <v>508564</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>471174</v>
+        <v>469533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>553662</v>
+        <v>549222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3347142461742809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3101060089867006</v>
+        <v>0.3090255963573841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3643957779524848</v>
+        <v>0.3614731484857203</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>54132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38456</v>
+        <v>39385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71237</v>
+        <v>70622</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07211655172817631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05123253652592932</v>
+        <v>0.05246966175627567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09490393157574288</v>
+        <v>0.09408468168925806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -3731,19 +3731,19 @@
         <v>90726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72254</v>
+        <v>74755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110251</v>
+        <v>111283</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1180140717180372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09398600185519537</v>
+        <v>0.09723898874959751</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1434118336709141</v>
+        <v>0.1447533772432004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -3752,19 +3752,19 @@
         <v>144859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124984</v>
+        <v>123180</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171481</v>
+        <v>171805</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09533948305415947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0822592175307825</v>
+        <v>0.08107184106516523</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.112861147371018</v>
+        <v>0.1130746458339564</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>51390</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38509</v>
+        <v>38710</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67564</v>
+        <v>67953</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05468904830035351</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04098105247435335</v>
+        <v>0.04119540910677492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07190177831910134</v>
+        <v>0.07231535574210063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -3877,19 +3877,19 @@
         <v>42205</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30686</v>
+        <v>29781</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57373</v>
+        <v>56464</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04047552656674142</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02942869200698648</v>
+        <v>0.02856121652859067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05502261651814485</v>
+        <v>0.05415025787861371</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -3898,19 +3898,19 @@
         <v>93595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75293</v>
+        <v>73885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113834</v>
+        <v>112675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04721288534972272</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03798089486608544</v>
+        <v>0.03727044903973886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05742240587726623</v>
+        <v>0.05683783334930394</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>573221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>542329</v>
+        <v>540946</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>603745</v>
+        <v>601957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6100201281865746</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.577144564945422</v>
+        <v>0.5756731918868314</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6425033074634449</v>
+        <v>0.6406004639878962</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>546</v>
@@ -3948,19 +3948,19 @@
         <v>571346</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>539586</v>
+        <v>539985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>603915</v>
+        <v>606565</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5479386637718736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5174799316844438</v>
+        <v>0.5178625590795904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5791737377968307</v>
+        <v>0.5817144020916245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1102</v>
@@ -3969,19 +3969,19 @@
         <v>1144567</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1098589</v>
+        <v>1101527</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1188793</v>
+        <v>1195778</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5773659308049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5541725438862989</v>
+        <v>0.5556545660231246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5996753348513829</v>
+        <v>0.6031986621825656</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>252485</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>223826</v>
+        <v>225394</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>279521</v>
+        <v>281211</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.268693792714103</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2381949570740602</v>
+        <v>0.2398633632060066</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2974658284997621</v>
+        <v>0.2992636198974471</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>303</v>
@@ -4019,19 +4019,19 @@
         <v>318907</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>284996</v>
+        <v>287663</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>348461</v>
+        <v>352626</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3058419090804566</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2733202711968335</v>
+        <v>0.2758774107973707</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3341851414385025</v>
+        <v>0.3381792489132342</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>547</v>
@@ -4040,19 +4040,19 @@
         <v>571392</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>534328</v>
+        <v>528048</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>613045</v>
+        <v>610169</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2882333112422303</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2695367388790897</v>
+        <v>0.2663688733023531</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.30924485886667</v>
+        <v>0.3077939772589458</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>62580</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47687</v>
+        <v>46297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82375</v>
+        <v>79921</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06659703079896881</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05074861384040581</v>
+        <v>0.04926952506326073</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08766310591190071</v>
+        <v>0.0850521447442579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -4090,19 +4090,19 @@
         <v>110261</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91209</v>
+        <v>88770</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131961</v>
+        <v>131393</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1057439005809284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08747243724934273</v>
+        <v>0.08513289203886934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1265545950987282</v>
+        <v>0.126010241328743</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>157</v>
@@ -4111,19 +4111,19 @@
         <v>172841</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>147466</v>
+        <v>147551</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205444</v>
+        <v>200560</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08718787260314696</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07438790256496865</v>
+        <v>0.07443074353658068</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1036343240874808</v>
+        <v>0.1011704580968306</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>165245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>140372</v>
+        <v>140826</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>194357</v>
+        <v>190663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04865223629210162</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04132902132383275</v>
+        <v>0.04146290652456667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05722367034343677</v>
+        <v>0.05613608215046494</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -4236,19 +4236,19 @@
         <v>135513</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>112103</v>
+        <v>112661</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>158318</v>
+        <v>159305</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03848579414384162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03183749807964129</v>
+        <v>0.03199588586598803</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0449625827939938</v>
+        <v>0.04524289479682415</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>282</v>
@@ -4257,19 +4257,19 @@
         <v>300757</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>268075</v>
+        <v>265876</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>336883</v>
+        <v>336949</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04347740337598923</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03875284049120974</v>
+        <v>0.03843501738483015</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04869977312129443</v>
+        <v>0.0487091876548942</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>2103573</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2044988</v>
+        <v>2042940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2159341</v>
+        <v>2156468</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6193457477382595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6020969660705999</v>
+        <v>0.6014939770126716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6357652783265831</v>
+        <v>0.6349195997057369</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1713</v>
@@ -4307,19 +4307,19 @@
         <v>1848193</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1790425</v>
+        <v>1789238</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1912053</v>
+        <v>1908630</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5248887405939182</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5084826710250275</v>
+        <v>0.5081454434378476</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5430251083777943</v>
+        <v>0.5420530129884928</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3689</v>
@@ -4328,19 +4328,19 @@
         <v>3951765</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3858214</v>
+        <v>3864127</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4040009</v>
+        <v>4029959</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5712660731972836</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5577423055325701</v>
+        <v>0.5585971928356922</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5840226446030624</v>
+        <v>0.5825697483111952</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>918757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>865600</v>
+        <v>861264</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>972446</v>
+        <v>971865</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2705054977878226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2548549929266976</v>
+        <v>0.2535783671851658</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2863131645550792</v>
+        <v>0.2861418660512328</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1089</v>
@@ -4378,19 +4378,19 @@
         <v>1170932</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1113959</v>
+        <v>1118100</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1229048</v>
+        <v>1231462</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3325459719104164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3163654381517937</v>
+        <v>0.3175414761247002</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3490508291917624</v>
+        <v>0.3497364274308161</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1952</v>
@@ -4399,19 +4399,19 @@
         <v>2089688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2005677</v>
+        <v>2009686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2163442</v>
+        <v>2166028</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3020847939603548</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2899400792582286</v>
+        <v>0.2905196579650545</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3127465729045085</v>
+        <v>0.3131204220469612</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>208869</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>180343</v>
+        <v>181422</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>240699</v>
+        <v>244248</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06149651818181642</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05309759406507408</v>
+        <v>0.05341531416351548</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07086798225453976</v>
+        <v>0.07191275275331137</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>339</v>
@@ -4449,19 +4449,19 @@
         <v>366476</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>331996</v>
+        <v>328262</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>405804</v>
+        <v>403764</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1040794933518237</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09428724004129031</v>
+        <v>0.09322674548797223</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1152487271176301</v>
+        <v>0.1146693629947123</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>525</v>
@@ -4470,19 +4470,19 @@
         <v>575345</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>522917</v>
+        <v>529870</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>623053</v>
+        <v>625428</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08317172946637234</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07559273745933082</v>
+        <v>0.07659788020533247</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09006839146681571</v>
+        <v>0.09041174573834064</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>20665</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12928</v>
+        <v>12645</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32069</v>
+        <v>31079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03098631220273988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01938422722948022</v>
+        <v>0.0189601267658041</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04808618436322912</v>
+        <v>0.04660101036588814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -4835,19 +4835,19 @@
         <v>25632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17200</v>
+        <v>16363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36925</v>
+        <v>36445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03884420871315634</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02606540650155939</v>
+        <v>0.02479690861412743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05595814105849453</v>
+        <v>0.05522983992833907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4856,19 +4856,19 @@
         <v>46297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33642</v>
+        <v>34554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60275</v>
+        <v>63050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03489442877568801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02535571870551533</v>
+        <v>0.02604367185892238</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04542947416449197</v>
+        <v>0.04752093522581585</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>441378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417368</v>
+        <v>415914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465578</v>
+        <v>465913</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6618242476249103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.625823012302273</v>
+        <v>0.6236427899045702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6981114752878945</v>
+        <v>0.6986133976070174</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -4906,19 +4906,19 @@
         <v>402004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379022</v>
+        <v>378192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>425452</v>
+        <v>425075</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6092121625670425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.57438325497108</v>
+        <v>0.5731258097324913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6447453196290408</v>
+        <v>0.6441746195127952</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>834</v>
@@ -4927,19 +4927,19 @@
         <v>843382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>807015</v>
+        <v>806334</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>880341</v>
+        <v>878032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6356576824023412</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6082478217361902</v>
+        <v>0.6077339709425035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6635134055911094</v>
+        <v>0.661773260322529</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>160258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>139842</v>
+        <v>137683</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182257</v>
+        <v>183471</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2402985600553676</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2096864338391203</v>
+        <v>0.2064484448471132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2732855913129481</v>
+        <v>0.2751056975116907</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>174</v>
@@ -4977,19 +4977,19 @@
         <v>175430</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153930</v>
+        <v>154136</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>198129</v>
+        <v>197422</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2658534683093556</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2332709594897322</v>
+        <v>0.2335826735494271</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3002511798425516</v>
+        <v>0.2991810159369609</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>324</v>
@@ -4998,19 +4998,19 @@
         <v>335688</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>303012</v>
+        <v>305960</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>367269</v>
+        <v>369208</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2530082668242452</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2283804087486848</v>
+        <v>0.2306019696388116</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2768111432494943</v>
+        <v>0.2782721180683213</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>44610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33436</v>
+        <v>32727</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58756</v>
+        <v>58826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06689088011698224</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05013489653373131</v>
+        <v>0.04907271820838323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08810221924091351</v>
+        <v>0.08820622774365111</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -5048,19 +5048,19 @@
         <v>56809</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43595</v>
+        <v>42856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73679</v>
+        <v>72656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08609016041044554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06606536064599169</v>
+        <v>0.06494567394723487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1116561921369003</v>
+        <v>0.1101054445943021</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -5069,19 +5069,19 @@
         <v>101419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83866</v>
+        <v>81742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125388</v>
+        <v>122529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07643962199772555</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0632099511490805</v>
+        <v>0.06160876846144185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09450505090002824</v>
+        <v>0.09235018327035657</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>42417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30812</v>
+        <v>30584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>57503</v>
+        <v>58842</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04205028467472741</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03054574826596547</v>
+        <v>0.03031908056805355</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0570055224817546</v>
+        <v>0.05833290585409839</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -5194,19 +5194,19 @@
         <v>38507</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27580</v>
+        <v>28089</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51545</v>
+        <v>52038</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03734618355110395</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02674824170661318</v>
+        <v>0.02724235374294395</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04999116680724636</v>
+        <v>0.05046935645234589</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>76</v>
@@ -5215,19 +5215,19 @@
         <v>80925</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>63366</v>
+        <v>63948</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>100510</v>
+        <v>99312</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03967245328760707</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03106425445115246</v>
+        <v>0.03134982645913427</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04927406670255165</v>
+        <v>0.04868638828874013</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>655778</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>624857</v>
+        <v>622197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>690260</v>
+        <v>685177</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6501016218655002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6194483380496175</v>
+        <v>0.6168106970893877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6842845849264207</v>
+        <v>0.6792454413130069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>570</v>
@@ -5265,19 +5265,19 @@
         <v>603360</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>569420</v>
+        <v>568853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>635192</v>
+        <v>636971</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5851665021742459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5522500238184617</v>
+        <v>0.5517004379823678</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6160384946542674</v>
+        <v>0.6177642289931331</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1182</v>
@@ -5286,19 +5286,19 @@
         <v>1259138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1213498</v>
+        <v>1213061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1306522</v>
+        <v>1301417</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6172781851088206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5949035942180166</v>
+        <v>0.5946892728082231</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6405073608686791</v>
+        <v>0.6380046661392847</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>250746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221891</v>
+        <v>224095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281741</v>
+        <v>282057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2485752059357252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2199707147013034</v>
+        <v>0.2221555482643195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2793019767650819</v>
+        <v>0.2796156962759522</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -5336,19 +5336,19 @@
         <v>306272</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>274162</v>
+        <v>275982</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337417</v>
+        <v>338315</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2970368886415541</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2658949773465353</v>
+        <v>0.2676597455979944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3272424580233785</v>
+        <v>0.3281138396106247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>514</v>
@@ -5357,19 +5357,19 @@
         <v>557018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>510386</v>
+        <v>517422</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>596621</v>
+        <v>599383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2730716415314431</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2502107677206341</v>
+        <v>0.2536600398184518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2924865762701854</v>
+        <v>0.2938404894373123</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>59790</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44738</v>
+        <v>45597</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77457</v>
+        <v>75700</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05927288752404719</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04435028398688353</v>
+        <v>0.04520199907571231</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07678677617045521</v>
+        <v>0.07504491366811758</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>77</v>
@@ -5407,19 +5407,19 @@
         <v>82952</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67716</v>
+        <v>66461</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102228</v>
+        <v>103584</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08045042563309605</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06567397007667043</v>
+        <v>0.06445742001348032</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09914502443601086</v>
+        <v>0.1004607493363824</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>132</v>
@@ -5428,19 +5428,19 @@
         <v>142742</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>119334</v>
+        <v>120351</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167978</v>
+        <v>169265</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06997772007212916</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05850235238692611</v>
+        <v>0.05900061845419015</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08234908552690441</v>
+        <v>0.08298001210458088</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>24820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16894</v>
+        <v>16038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36676</v>
+        <v>36805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03280769686363617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02233078200869617</v>
+        <v>0.02119908857352699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04847899594525697</v>
+        <v>0.0486501370536551</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -5553,19 +5553,19 @@
         <v>27564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18259</v>
+        <v>18147</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40003</v>
+        <v>39900</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03545784584477737</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02348790576627992</v>
+        <v>0.02334372403211663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05145992377068617</v>
+        <v>0.05132704941888978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -5574,19 +5574,19 @@
         <v>52384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40179</v>
+        <v>39695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69279</v>
+        <v>69745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03415077259301467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02619436902595249</v>
+        <v>0.02587871975900617</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04516572301478664</v>
+        <v>0.04546940521031994</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>459120</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>433102</v>
+        <v>430400</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>490427</v>
+        <v>486932</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6068795715473091</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5724880148566548</v>
+        <v>0.5689168255072911</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6482622979513216</v>
+        <v>0.6436420382647656</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>425</v>
@@ -5624,19 +5624,19 @@
         <v>450004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>422241</v>
+        <v>417985</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>477653</v>
+        <v>478430</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5788846045059154</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5431705465382689</v>
+        <v>0.5376951822960095</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6144515479614853</v>
+        <v>0.6154519814683144</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>846</v>
@@ -5645,19 +5645,19 @@
         <v>909124</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>868217</v>
+        <v>870252</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>947291</v>
+        <v>949315</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5926919311370495</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5660231321606355</v>
+        <v>0.5673495735261512</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6175745623083279</v>
+        <v>0.6188940424470928</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>223043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195622</v>
+        <v>198270</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>248667</v>
+        <v>252069</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2948252254435623</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2585788906245972</v>
+        <v>0.262079992962878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3286956901480913</v>
+        <v>0.3331930672241628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>232</v>
@@ -5695,19 +5695,19 @@
         <v>245606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>218609</v>
+        <v>218179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>272424</v>
+        <v>273826</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3159469197557924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2812178891941033</v>
+        <v>0.2806648779848184</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3504463345546284</v>
+        <v>0.3522497412731532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>438</v>
@@ -5716,19 +5716,19 @@
         <v>468649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>432737</v>
+        <v>430856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>506477</v>
+        <v>505159</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3055295425200659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2821174087228471</v>
+        <v>0.2808912989676944</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3301913212367156</v>
+        <v>0.3293319215715871</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>49543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36258</v>
+        <v>35185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66234</v>
+        <v>64673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06548750614549247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04792665775121067</v>
+        <v>0.04650817819428822</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08755078418961829</v>
+        <v>0.08548616395431811</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -5766,19 +5766,19 @@
         <v>54191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40411</v>
+        <v>39771</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70416</v>
+        <v>71449</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0697106298935148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05198454829327166</v>
+        <v>0.05116174358780225</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09058341940396229</v>
+        <v>0.09191188438981539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -5787,19 +5787,19 @@
         <v>103734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84978</v>
+        <v>84638</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124787</v>
+        <v>127821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06762775374986991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05540045889581216</v>
+        <v>0.05517886427105331</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08135340934316765</v>
+        <v>0.08333132397758415</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>54724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42567</v>
+        <v>41650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72625</v>
+        <v>70231</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05887218547112474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04579401396168447</v>
+        <v>0.04480733440266804</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07813064372706527</v>
+        <v>0.07555464686140044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -5912,19 +5912,19 @@
         <v>41255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29397</v>
+        <v>30131</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54748</v>
+        <v>55251</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04002414374014169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02852008537775235</v>
+        <v>0.02923202957697902</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05311451559316609</v>
+        <v>0.05360332269520382</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -5933,19 +5933,19 @@
         <v>95978</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78102</v>
+        <v>77199</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116966</v>
+        <v>115900</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04896160440268112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03984247710115989</v>
+        <v>0.03938141644804438</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05966792218045638</v>
+        <v>0.05912413138856574</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>569651</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>533821</v>
+        <v>539931</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>595924</v>
+        <v>597018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6128338855248689</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5742875785502494</v>
+        <v>0.5808611609646982</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6410984190015022</v>
+        <v>0.6422751726100707</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>509</v>
@@ -5983,19 +5983,19 @@
         <v>546783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>513744</v>
+        <v>511035</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>579502</v>
+        <v>583066</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5304737654703529</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4984198956323523</v>
+        <v>0.4957915020247515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5622163724523865</v>
+        <v>0.5656741158136451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1080</v>
@@ -6004,19 +6004,19 @@
         <v>1116434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1076208</v>
+        <v>1071774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1159202</v>
+        <v>1160874</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5695277077130237</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5490073904528238</v>
+        <v>0.5467452264186496</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5913453166698466</v>
+        <v>0.5921981646504709</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>247999</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>220613</v>
+        <v>223760</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>276272</v>
+        <v>275774</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2667991788715961</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2373365308359182</v>
+        <v>0.2407224481111108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2972154531715286</v>
+        <v>0.2966787019164587</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>299</v>
@@ -6054,19 +6054,19 @@
         <v>329795</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>296660</v>
+        <v>296864</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>357397</v>
+        <v>362136</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3199581332095141</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2878111956065038</v>
+        <v>0.2880087488865749</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3467364201725682</v>
+        <v>0.3513343094357255</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>544</v>
@@ -6075,19 +6075,19 @@
         <v>577794</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>537846</v>
+        <v>536834</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>619475</v>
+        <v>620541</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2947509488219776</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2743717843037975</v>
+        <v>0.2738559804369029</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3160133813331216</v>
+        <v>0.3165574021075597</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>57162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44649</v>
+        <v>43471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75947</v>
+        <v>72173</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06149475013241017</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04803358299148498</v>
+        <v>0.04676668267776426</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08170427543076751</v>
+        <v>0.07764457852604732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -6125,19 +6125,19 @@
         <v>112912</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93411</v>
+        <v>92606</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134952</v>
+        <v>135733</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1095439575799914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09062490728746689</v>
+        <v>0.08984328300190754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.130926813146115</v>
+        <v>0.1316839927156437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>156</v>
@@ -6146,19 +6146,19 @@
         <v>170073</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>143752</v>
+        <v>142219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>197095</v>
+        <v>196554</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08675973906231751</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07333213810769368</v>
+        <v>0.0725505184575701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1005445259975039</v>
+        <v>0.1002682421498567</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>142626</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>118081</v>
+        <v>121920</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>166383</v>
+        <v>170866</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04242676457260042</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03512537788304534</v>
+        <v>0.03626717541719293</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04949355108397693</v>
+        <v>0.05082708217801951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>127</v>
@@ -6271,19 +6271,19 @@
         <v>132958</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111270</v>
+        <v>111325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155244</v>
+        <v>158123</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03799803502385688</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0317997089363701</v>
+        <v>0.03181568066339679</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04436712864220022</v>
+        <v>0.04519004377196456</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>261</v>
@@ -6292,19 +6292,19 @@
         <v>275584</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>241347</v>
+        <v>242169</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>307562</v>
+        <v>308757</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0401680624747963</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0351777986033709</v>
+        <v>0.03529757386019524</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04482906875245987</v>
+        <v>0.04500321492047471</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>2125928</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2065530</v>
+        <v>2074940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2182189</v>
+        <v>2184367</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.632395618889099</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6144291912235764</v>
+        <v>0.6172285976753115</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6491315713671959</v>
+        <v>0.6497796020219785</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1905</v>
@@ -6342,19 +6342,19 @@
         <v>2002152</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1937555</v>
+        <v>1945239</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2058017</v>
+        <v>2065209</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.572194388466614</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5537333876484569</v>
+        <v>0.5559293482451462</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5881601595659538</v>
+        <v>0.5902153925965009</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3942</v>
@@ -6363,19 +6363,19 @@
         <v>4128079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4048391</v>
+        <v>4047946</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4209149</v>
+        <v>4213533</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6016923113267229</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5900773686380145</v>
+        <v>0.5900125140397905</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6135088070130179</v>
+        <v>0.6141477728455549</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>882046</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>832724</v>
+        <v>827703</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>933132</v>
+        <v>930977</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2623805220882544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.247708949494723</v>
+        <v>0.2462151905602724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.277577105001753</v>
+        <v>0.2769358460625149</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>986</v>
@@ -6413,19 +6413,19 @@
         <v>1057103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1002254</v>
+        <v>999855</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1108878</v>
+        <v>1110628</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.302109296044074</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2864339798056929</v>
+        <v>0.2857482674144897</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3169060835167783</v>
+        <v>0.3174061138757498</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1820</v>
@@ -6434,19 +6434,19 @@
         <v>1939149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1869358</v>
+        <v>1869690</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2017400</v>
+        <v>2014656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2826426455910666</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2724702209543362</v>
+        <v>0.2725186494214206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2940482048041913</v>
+        <v>0.2936483121899032</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>211105</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>183298</v>
+        <v>180861</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>242571</v>
+        <v>241243</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06279709445004618</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05452534766502224</v>
+        <v>0.0538004630506518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0721572261982239</v>
+        <v>0.07176215571818428</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>279</v>
@@ -6484,19 +6484,19 @@
         <v>306863</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>272241</v>
+        <v>270338</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>343772</v>
+        <v>341068</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08769828046545515</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07780364753734999</v>
+        <v>0.07725991163161192</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09824653377876677</v>
+        <v>0.09747379226388447</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>472</v>
@@ -6505,19 +6505,19 @@
         <v>517968</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>471043</v>
+        <v>473336</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>562502</v>
+        <v>560828</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07549698060741421</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06865733301216691</v>
+        <v>0.06899150055097462</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08198799871791718</v>
+        <v>0.08174400854232973</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>34969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22535</v>
+        <v>22887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54836</v>
+        <v>53257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0506270830858738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03262514559384103</v>
+        <v>0.03313494552779712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07939011432376236</v>
+        <v>0.07710471119986775</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -6870,19 +6870,19 @@
         <v>34716</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26170</v>
+        <v>25297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46164</v>
+        <v>45567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04749193658506665</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03580093791164564</v>
+        <v>0.03460744302648514</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06315373690943278</v>
+        <v>0.06233651456059074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -6891,19 +6891,19 @@
         <v>69684</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54977</v>
+        <v>53914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92222</v>
+        <v>89664</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04901510553066296</v>
+        <v>0.04901510553066297</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03866992543464438</v>
+        <v>0.03792272549137609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06486816047530332</v>
+        <v>0.06306840307679026</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>362026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>333198</v>
+        <v>333929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390464</v>
+        <v>389018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5241366311881047</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4823990105790358</v>
+        <v>0.4834569162899977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5653082534914127</v>
+        <v>0.5632153519999937</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -6941,19 +6941,19 @@
         <v>390962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368012</v>
+        <v>367890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>413875</v>
+        <v>412938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5348455766201232</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5034481997575897</v>
+        <v>0.5032819533304863</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5661903356112591</v>
+        <v>0.5649084815204912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1015</v>
@@ -6962,19 +6962,19 @@
         <v>752988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>716771</v>
+        <v>717069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>787329</v>
+        <v>787890</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5296427788823024</v>
+        <v>0.5296427788823025</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5041680070844921</v>
+        <v>0.5043777441616061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5537972201092654</v>
+        <v>0.5541918826149124</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>241598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>215253</v>
+        <v>214888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>270309</v>
+        <v>268450</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3497822782694951</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3116403512471652</v>
+        <v>0.3111117777729305</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3913499044902211</v>
+        <v>0.3886582591991597</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>451</v>
@@ -7012,19 +7012,19 @@
         <v>245940</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223917</v>
+        <v>223699</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>267368</v>
+        <v>265837</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3364520357522253</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3063232544616307</v>
+        <v>0.3060258488917997</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3657661267883041</v>
+        <v>0.3636713561594105</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>709</v>
@@ -7033,19 +7033,19 @@
         <v>487538</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>451628</v>
+        <v>453291</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>519255</v>
+        <v>520325</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3429283555779003</v>
+        <v>0.3429283555779004</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3176696468218642</v>
+        <v>0.31883924088371</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.365237897416051</v>
+        <v>0.3659899914889117</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>52117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39796</v>
+        <v>39989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67214</v>
+        <v>68099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07545400745652645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05761660699183753</v>
+        <v>0.05789496476489871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09731086849327832</v>
+        <v>0.09859327602759364</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>104</v>
@@ -7083,19 +7083,19 @@
         <v>59363</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49464</v>
+        <v>49210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72423</v>
+        <v>73023</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08121045104258491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06766779602119258</v>
+        <v>0.06732076403215687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09907622861050829</v>
+        <v>0.09989654167723926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -7104,19 +7104,19 @@
         <v>111480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94398</v>
+        <v>93947</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131440</v>
+        <v>131529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07841376000913432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06639848700921171</v>
+        <v>0.06608083647484946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09245330077265203</v>
+        <v>0.0925161978966581</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>60183</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42620</v>
+        <v>41928</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>83095</v>
+        <v>83909</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05742640110058733</v>
+        <v>0.05742640110058735</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04066786023936327</v>
+        <v>0.04000782352255915</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07928910372341251</v>
+        <v>0.08006657892881947</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -7229,19 +7229,19 @@
         <v>80289</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>63023</v>
+        <v>62599</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>101656</v>
+        <v>102109</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07511117413843409</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05895839301568327</v>
+        <v>0.05856230461853285</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09509956572534872</v>
+        <v>0.095523481679678</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>132</v>
@@ -7250,19 +7250,19 @@
         <v>140472</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>116146</v>
+        <v>113677</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>171430</v>
+        <v>171787</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06635626042729355</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05486536463129515</v>
+        <v>0.05369891763024046</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08098026010751658</v>
+        <v>0.08114877670953728</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>624502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>586522</v>
+        <v>585346</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>658303</v>
+        <v>659424</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5959015293947143</v>
+        <v>0.5959015293947142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5596607924001973</v>
+        <v>0.558538849546459</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6281541123505114</v>
+        <v>0.6292241590294271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>857</v>
@@ -7300,19 +7300,19 @@
         <v>613239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>583991</v>
+        <v>583357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>640690</v>
+        <v>642101</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5736903325619526</v>
+        <v>0.5736903325619525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5463285322755053</v>
+        <v>0.5457355019613603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5993702637138183</v>
+        <v>0.6006904545312536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1430</v>
@@ -7321,19 +7321,19 @@
         <v>1237742</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1192974</v>
+        <v>1191252</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1282414</v>
+        <v>1281321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5846860694750493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5635384541505825</v>
+        <v>0.5627250899640931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6057885983672345</v>
+        <v>0.6052721209006015</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>301238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>271231</v>
+        <v>269372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>337402</v>
+        <v>333984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2874415282369917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2588088386217805</v>
+        <v>0.2570349624566407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3219494730472613</v>
+        <v>0.3186886827227371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>469</v>
@@ -7371,19 +7371,19 @@
         <v>309753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>282952</v>
+        <v>284954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335724</v>
+        <v>337840</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2897768403713025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2647036964531818</v>
+        <v>0.2665765194920324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3140726328784252</v>
+        <v>0.3160515434269988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>754</v>
@@ -7392,19 +7392,19 @@
         <v>610991</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571797</v>
+        <v>572888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>650852</v>
+        <v>656004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2886207352756524</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2701063285812151</v>
+        <v>0.2706214313295163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3074501955147343</v>
+        <v>0.3098841750416338</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>62073</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47297</v>
+        <v>46891</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80459</v>
+        <v>77558</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0592305412677066</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0451309619620678</v>
+        <v>0.04474327186218462</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07677367366152009</v>
+        <v>0.07400602315677189</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -7442,19 +7442,19 @@
         <v>65656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52540</v>
+        <v>54623</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80922</v>
+        <v>82100</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06142165292831094</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04915152742270182</v>
+        <v>0.05110050317712869</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07570363919903675</v>
+        <v>0.07680552862554733</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>160</v>
@@ -7463,19 +7463,19 @@
         <v>127729</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>107919</v>
+        <v>108580</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>152935</v>
+        <v>149792</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06033693482200493</v>
+        <v>0.06033693482200492</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05097874199846777</v>
+        <v>0.05129132566997984</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0722434682556037</v>
+        <v>0.07075899360624639</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>56586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41027</v>
+        <v>41121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75213</v>
+        <v>77189</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07054390648526711</v>
+        <v>0.07054390648526709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05114736537824533</v>
+        <v>0.05126477938989522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09376584429483634</v>
+        <v>0.09623022147806724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -7588,19 +7588,19 @@
         <v>49282</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36732</v>
+        <v>37566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65704</v>
+        <v>64742</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.0608187881114623</v>
+        <v>0.06081878811146229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0453300873069689</v>
+        <v>0.04636001290773229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08108523672913236</v>
+        <v>0.07989699114232858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -7609,19 +7609,19 @@
         <v>105868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85598</v>
+        <v>83500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130791</v>
+        <v>129335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06565667591999572</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05308583857315269</v>
+        <v>0.05178460260735529</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08111371382741418</v>
+        <v>0.08021039027231344</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>437829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>403803</v>
+        <v>405428</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>469501</v>
+        <v>472334</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5458315936057828</v>
+        <v>0.5458315936057827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5034118989602696</v>
+        <v>0.5054380704013044</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.585316252019583</v>
+        <v>0.5888486024797698</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>557</v>
@@ -7659,19 +7659,19 @@
         <v>450661</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>423947</v>
+        <v>425694</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>476983</v>
+        <v>477386</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.5561563410274567</v>
+        <v>0.5561563410274566</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5231887755448397</v>
+        <v>0.5253447354381894</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5886403096872902</v>
+        <v>0.5891377256231136</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>911</v>
@@ -7680,19 +7680,19 @@
         <v>888489</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>848472</v>
+        <v>843251</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>930504</v>
+        <v>928983</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.5510201598769993</v>
+        <v>0.5510201598769991</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5262022145576526</v>
+        <v>0.5229645876296636</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5770766252852982</v>
+        <v>0.5761334680917424</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>264308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>236629</v>
+        <v>233322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>294682</v>
+        <v>292692</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.329506634905078</v>
+        <v>0.3295066349050779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2950004079390653</v>
+        <v>0.2908772287534851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3673737845282537</v>
+        <v>0.364891968956652</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>346</v>
@@ -7730,19 +7730,19 @@
         <v>250695</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>228886</v>
+        <v>227864</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>276261</v>
+        <v>275810</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3093809604551929</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2824656307204251</v>
+        <v>0.2812050372893961</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3409317651245977</v>
+        <v>0.34037441617498</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>582</v>
@@ -7751,19 +7751,19 @@
         <v>515003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>477132</v>
+        <v>477404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>551843</v>
+        <v>555115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3193927414245508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2959062630655045</v>
+        <v>0.2960744783755713</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3422398399577999</v>
+        <v>0.3442690133355809</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>43410</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30573</v>
+        <v>32197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58253</v>
+        <v>60342</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05411786500387221</v>
+        <v>0.0541178650038722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03811493668004668</v>
+        <v>0.04013869747084423</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07262329063241453</v>
+        <v>0.07522683098146528</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -7801,19 +7801,19 @@
         <v>59675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47329</v>
+        <v>47917</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73341</v>
+        <v>73644</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07364391040588812</v>
+        <v>0.07364391040588811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05840860894231885</v>
+        <v>0.05913389014580847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09050995683494178</v>
+        <v>0.09088392445918662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -7822,19 +7822,19 @@
         <v>103084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86962</v>
+        <v>85712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123191</v>
+        <v>123401</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06393042277845423</v>
+        <v>0.06393042277845422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05393161106888612</v>
+        <v>0.05315636379391787</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07639991768560232</v>
+        <v>0.07653011434423922</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>41132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28209</v>
+        <v>28184</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59281</v>
+        <v>60618</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0415900583935626</v>
+        <v>0.04159005839356259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02852269007630079</v>
+        <v>0.02849775226192016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05994114366514228</v>
+        <v>0.06129228302839441</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -7947,19 +7947,19 @@
         <v>52685</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40389</v>
+        <v>40017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68950</v>
+        <v>70771</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04709863337707675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03610679692729245</v>
+        <v>0.03577409368129068</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06163879014724212</v>
+        <v>0.06326733794983262</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -7968,19 +7968,19 @@
         <v>93817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73571</v>
+        <v>72614</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116121</v>
+        <v>117217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04451373688107122</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03490746176175229</v>
+        <v>0.03445346521013121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05509646666957896</v>
+        <v>0.05561635882500191</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>561744</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>524459</v>
+        <v>526628</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>590313</v>
+        <v>592384</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5679971761392527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5302970734125853</v>
+        <v>0.5324906073719795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5968844003497837</v>
+        <v>0.5989776897818094</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>828</v>
@@ -8018,19 +8018,19 @@
         <v>616567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>588289</v>
+        <v>588713</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>645163</v>
+        <v>647269</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.551190689435764</v>
+        <v>0.5511906894357641</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5259110289411209</v>
+        <v>0.5262898940915477</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5767540418751691</v>
+        <v>0.5786364927709193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1382</v>
@@ -8039,19 +8039,19 @@
         <v>1178312</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1133757</v>
+        <v>1131480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1220515</v>
+        <v>1220763</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5590771262583588</v>
+        <v>0.5590771262583589</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5379372036316202</v>
+        <v>0.5368569888222767</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5791014292405221</v>
+        <v>0.5792193124120705</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>297795</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>267866</v>
+        <v>269802</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>332005</v>
+        <v>326846</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3011098474064898</v>
+        <v>0.3011098474064897</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.270847928218632</v>
+        <v>0.2728048413553107</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3357004497130122</v>
+        <v>0.3304839352546644</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>516</v>
@@ -8089,19 +8089,19 @@
         <v>342978</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>318323</v>
+        <v>316185</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>372565</v>
+        <v>369774</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3066104522805133</v>
+        <v>0.3066104522805132</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2845701000369394</v>
+        <v>0.2826592645327846</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3330605956450569</v>
+        <v>0.3305657288500543</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>839</v>
@@ -8110,19 +8110,19 @@
         <v>640772</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>603523</v>
+        <v>603985</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>683262</v>
+        <v>682606</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3040292957550367</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2863556403126275</v>
+        <v>0.2865744972209748</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3241893283899743</v>
+        <v>0.3238782202248597</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>88320</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71180</v>
+        <v>70985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>111127</v>
+        <v>108663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08930291806069494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07197207613252671</v>
+        <v>0.07177566590507883</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1123644105707658</v>
+        <v>0.1098730211698338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -8160,19 +8160,19 @@
         <v>106380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91195</v>
+        <v>90804</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126714</v>
+        <v>123668</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09510022490664601</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0815256083121961</v>
+        <v>0.08117617137151763</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1132782668960482</v>
+        <v>0.1105548430023923</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>254</v>
@@ -8181,19 +8181,19 @@
         <v>194700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>170867</v>
+        <v>172974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222943</v>
+        <v>220409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0923798411055331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0810715838414057</v>
+        <v>0.08207156996434646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1057806707241933</v>
+        <v>0.1045781926066893</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>192869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>162150</v>
+        <v>160333</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>229340</v>
+        <v>233447</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05463975332012207</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0459370559424195</v>
+        <v>0.04542229238242832</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06497195982581029</v>
+        <v>0.06613564388905384</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>254</v>
@@ -8306,19 +8306,19 @@
         <v>216972</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>189917</v>
+        <v>191103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>247149</v>
+        <v>248973</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05818753745345984</v>
+        <v>0.05818753745345983</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05093202763597593</v>
+        <v>0.05125002980649661</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06628044134971843</v>
+        <v>0.06676950215176893</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>401</v>
@@ -8327,19 +8327,19 @@
         <v>409841</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>368592</v>
+        <v>365400</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>458616</v>
+        <v>452872</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.056462280915702</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05077954608329372</v>
+        <v>0.05033986222505719</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06318180817930914</v>
+        <v>0.06239053624746822</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1986101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1922789</v>
+        <v>1917760</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2054488</v>
+        <v>2053073</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5626623654413567</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5447258557074953</v>
+        <v>0.5433012518389742</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5820362153771308</v>
+        <v>0.5816355604314615</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2870</v>
@@ -8377,19 +8377,19 @@
         <v>2071429</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2014334</v>
+        <v>2009858</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2123932</v>
+        <v>2120593</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5555154823551961</v>
+        <v>0.555515482355196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5402036857116664</v>
+        <v>0.5390032930727393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5695956713748012</v>
+        <v>0.5687002813026747</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4738</v>
@@ -8398,19 +8398,19 @@
         <v>4057531</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3972993</v>
+        <v>3969540</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4140302</v>
+        <v>4145932</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5589909493806908</v>
+        <v>0.5589909493806909</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5473444967577579</v>
+        <v>0.5468688249152545</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5703940477482603</v>
+        <v>0.5711696222145244</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1104938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1048495</v>
+        <v>1042869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1167422</v>
+        <v>1166961</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3130288791495034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2970384936091997</v>
+        <v>0.2954446274839291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3307305342131249</v>
+        <v>0.3305998451752552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1782</v>
@@ -8448,19 +8448,19 @@
         <v>1149366</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1103968</v>
+        <v>1102204</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1202151</v>
+        <v>1203272</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3082368402473872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2960618207193832</v>
+        <v>0.2955888026696935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3223926447364593</v>
+        <v>0.3226931899611754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2884</v>
@@ -8469,19 +8469,19 @@
         <v>2254305</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2177331</v>
+        <v>2179358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2335554</v>
+        <v>2337536</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.310567167046974</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2999628271696355</v>
+        <v>0.3002420188065332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3217605821598222</v>
+        <v>0.322033619981424</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>245920</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>216345</v>
+        <v>215870</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>277502</v>
+        <v>279174</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06966900208901781</v>
+        <v>0.0696690020890178</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06129064915494657</v>
+        <v>0.06115590498637889</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07861638471324149</v>
+        <v>0.07908995651265284</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>447</v>
@@ -8519,19 +8519,19 @@
         <v>291074</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>262898</v>
+        <v>263808</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>317347</v>
+        <v>322182</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07806013994395684</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07050396404329344</v>
+        <v>0.07074798400264044</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0851060996854887</v>
+        <v>0.08640262526114892</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>703</v>
@@ -8540,19 +8540,19 @@
         <v>536994</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>498884</v>
+        <v>496692</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>585341</v>
+        <v>581888</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.07397960265663296</v>
+        <v>0.07397960265663299</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06872934166913566</v>
+        <v>0.06842740149150905</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08064022301751045</v>
+        <v>0.08016458044609608</v>
       </c>
     </row>
     <row r="28">
